--- a/APM/Autoevaluación con Sustentación Guía APM aholguinr.xlsx
+++ b/APM/Autoevaluación con Sustentación Guía APM aholguinr.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Semestre-10\APM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B961F65-904A-4AF4-8097-D9CFD15CBE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F66CC4C-0889-42DA-8CAE-9C5B8A8BB6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Desglose" sheetId="2" r:id="rId1"/>
-    <sheet name="Conglomerado" sheetId="1" r:id="rId2"/>
-    <sheet name="Conglomerado (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Conglomerado" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Calificación</t>
   </si>
@@ -64,27 +63,12 @@
     <t>Explicación</t>
   </si>
   <si>
-    <t>Para tener en cuenta los siguientes aspectos para calificar la autoevaluación por trabajo:</t>
-  </si>
-  <si>
-    <t>Rigor teórico</t>
-  </si>
-  <si>
     <t>Modelado</t>
   </si>
   <si>
-    <t>Coherencia y fluidez</t>
-  </si>
-  <si>
-    <t>Calidad y claridad del soporte</t>
-  </si>
-  <si>
     <t>Aplicación</t>
   </si>
   <si>
-    <t xml:space="preserve">Completitud </t>
-  </si>
-  <si>
     <t>Motion Control-Profile Movement</t>
   </si>
   <si>
@@ -106,9 +90,6 @@
     <t>Coherencia y Fluidez</t>
   </si>
   <si>
-    <t>Calidad y Claridad del soporte Documento</t>
-  </si>
-  <si>
     <t>POA</t>
   </si>
   <si>
@@ -118,9 +99,6 @@
     <t>Industria 4.0 y IIOT</t>
   </si>
   <si>
-    <t>Diseño Axiomático</t>
-  </si>
-  <si>
     <t>Manufactura Aditiva</t>
   </si>
   <si>
@@ -130,7 +108,13 @@
     <t>-</t>
   </si>
   <si>
-    <t>RUBRICA DE AUTOEVALUACION APM 2020-2023</t>
+    <t xml:space="preserve">Se realiza el diseño de una rueda de ginebra de 4 y 6 posiciones mediante el software OnShape con dimensiones del engrane de radio 10mm para el de 6 posiciones. Mediante el uso de una impresora propia, se prototipa la rueda de ginebra de 4 posiciones con dimensiones superiores a las requeridas, esto con el fin de evidenciar los acabados y precisión de este tipo de piezas y verificar el funcionamiento del mecanismo. Posterior a esto, mediante la misma impresora, se imprime el mecanismo de ginebra de 6 posiciones para que la rueda y el engrane cumplan con los requisitos dimensionales y volumétricos. Posterior a esto, se realiza el mecanismo y se analiza su funcionalidad. </t>
+  </si>
+  <si>
+    <t>DIPP y DAC</t>
+  </si>
+  <si>
+    <t>Calidad y soporte del documento</t>
   </si>
 </sst>
 </file>
@@ -140,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,24 +137,6 @@
       <color theme="1"/>
       <name val="Ancizar Sans"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Ancizar Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Ancizar Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Ancizar Sans"/>
     </font>
     <font>
       <b/>
@@ -198,43 +164,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Ancizar Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -250,18 +192,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
@@ -506,66 +436,50 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -574,84 +488,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -976,624 +856,392 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01AFDE0-DCC4-4701-A24E-0E099AFFE93D}">
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B1" zoomScale="141" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="5" width="12.85546875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="18" customWidth="1"/>
-    <col min="8" max="9" width="12.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="9" width="13.5546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:9" ht="30.75" thickBot="1">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="2:9" ht="15" thickBot="1"/>
+    <row r="2" spans="2:9" ht="46.8" customHeight="1" thickBot="1">
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C3" s="28">
+        <f>AVERAGE(D3:I3)</f>
+        <v>4.7666666666666666</v>
+      </c>
+      <c r="D3" s="24">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="H3" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I3" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="29">
+        <f>AVERAGE(D4:I4)</f>
+        <v>4.6333333333333337</v>
+      </c>
+      <c r="D4" s="25">
+        <v>4.7</v>
+      </c>
+      <c r="E4" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F4" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="G4" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H4" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I4" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="29">
+        <f>AVERAGE(D5:I5)</f>
+        <v>4.75</v>
+      </c>
+      <c r="D5" s="25">
+        <v>4.7</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F5" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="G5" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="H5" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I5" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="25">
+        <v>4.7</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="6"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="6"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" thickBot="1">
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="52">
-        <f>AVERAGE(D3:I3)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D3" s="34">
-        <v>5</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="21">
-        <v>5</v>
-      </c>
-      <c r="G3" s="21">
-        <v>4.5</v>
-      </c>
-      <c r="H3" s="21">
-        <v>5</v>
-      </c>
-      <c r="I3" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="53">
-        <f>AVERAGE(D4:I4)</f>
-        <v>4.45</v>
-      </c>
-      <c r="D4" s="35">
-        <v>4.5</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="G4" s="23">
-        <v>4.25</v>
-      </c>
-      <c r="H4" s="23">
-        <v>4</v>
-      </c>
-      <c r="I4" s="24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="53">
-        <f>AVERAGE(D5:I5)</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D5" s="35">
-        <v>4.5</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="G5" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="H5" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="I5" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="53">
-        <f>AVERAGE(D6:I6)</f>
-        <v>4.5</v>
-      </c>
-      <c r="D6" s="35">
-        <v>4.5</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="16"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="16"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="16"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="16"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="16"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="26"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="27"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3:I6">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6A354CDB-CF0F-4639-8820-C6A9C64D8D6C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C6">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E44F88D7-09AA-4833-80BB-DBC566BD9AD5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6A354CDB-CF0F-4639-8820-C6A9C64D8D6C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:I6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E44F88D7-09AA-4833-80BB-DBC566BD9AD5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C3:C6</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:U16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="40.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="15" width="19.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="1"/>
-    <col min="19" max="19" width="16" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="1"/>
-    <col min="21" max="21" width="17" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="15">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="G1" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="12"/>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="13"/>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="31.5" customHeight="1">
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="S7" s="41"/>
-      <c r="T7" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="U7" s="42"/>
-    </row>
-    <row r="8" spans="1:21" ht="14.1" customHeight="1">
-      <c r="C8" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-    </row>
-    <row r="9" spans="1:21" ht="317.25" customHeight="1">
-      <c r="C9" s="43"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-    </row>
-    <row r="10" spans="1:21" ht="26.25" customHeight="1">
-      <c r="C10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-    </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:21" ht="15">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-    </row>
-    <row r="16" spans="1:21" ht="15">
-      <c r="J16" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q9"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S9"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="42" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DCF379-A57D-49F9-AB12-26CD20D5AAF2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:U11"/>
+  <dimension ref="A2:I11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="86.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="19.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="15.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="1"/>
+    <col min="14" max="14" width="19.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="12.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="1"/>
     <col min="18" max="18" width="16" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="1"/>
+    <col min="19" max="19" width="11.44140625" style="1"/>
     <col min="20" max="20" width="17" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="30" customHeight="1">
+    <row r="2" spans="1:9" ht="30" customHeight="1">
       <c r="A2"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:21" ht="30" customHeight="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:21" ht="30" customHeight="1">
-      <c r="B4" s="31" t="s">
+    <row r="3" spans="1:9" ht="44.4" customHeight="1">
+      <c r="B3" s="22"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="44.4" customHeight="1">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:21" ht="30" customHeight="1">
-      <c r="B5" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-    </row>
-    <row r="6" spans="1:21" ht="30" customHeight="1">
-      <c r="B6" s="31" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="44.4" customHeight="1">
+      <c r="B5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="44.4" customHeight="1">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-    </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1">
-      <c r="B7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" ht="30" customHeight="1">
-      <c r="B8" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:21" ht="30" customHeight="1">
-      <c r="B9" s="32" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="44.4" customHeight="1">
+      <c r="B7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="77.400000000000006" customHeight="1">
+      <c r="B8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" spans="1:9" ht="44.4" customHeight="1">
+      <c r="B9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" ht="30" customHeight="1">
-      <c r="B10" s="31" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" ht="44.4" customHeight="1">
+      <c r="B10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:21" ht="30" customHeight="1">
-      <c r="B11" s="32" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="44.4" customHeight="1">
+      <c r="B11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/APM/Autoevaluación con Sustentación Guía APM aholguinr.xlsx
+++ b/APM/Autoevaluación con Sustentación Guía APM aholguinr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Semestre-10\APM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F66CC4C-0889-42DA-8CAE-9C5B8A8BB6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECD0E9B-3FCD-40F9-BFB4-C86E37FB34CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Desglose" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Calificación</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Completitud</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se realiza el diseño de una rueda de ginebra de 4 y 6 posiciones mediante el software OnShape con dimensiones del engrane de radio 10mm para el de 6 posiciones. Mediante el uso de una impresora propia, se prototipa la rueda de ginebra de 4 posiciones con dimensiones superiores a las requeridas, esto con el fin de evidenciar los acabados y precisión de este tipo de piezas y verificar el funcionamiento del mecanismo. Posterior a esto, mediante la misma impresora, se imprime el mecanismo de ginebra de 6 posiciones para que la rueda y el engrane cumplan con los requisitos dimensionales y volumétricos. Posterior a esto, se realiza el mecanismo y se analiza su funcionalidad. </t>
   </si>
   <si>
@@ -115,6 +112,18 @@
   </si>
   <si>
     <t>Calidad y soporte del documento</t>
+  </si>
+  <si>
+    <t>Neumática</t>
+  </si>
+  <si>
+    <t>Electroneumática</t>
+  </si>
+  <si>
+    <t>Manufactura Flexible</t>
+  </si>
+  <si>
+    <t>Control de movimiento</t>
   </si>
 </sst>
 </file>
@@ -439,7 +448,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -450,9 +459,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -856,215 +862,286 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01AFDE0-DCC4-4701-A24E-0E099AFFE93D}">
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="141" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="141" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="9" width="13.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="9" width="13.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1"/>
-    <row r="2" spans="2:9" ht="46.8" customHeight="1" thickBot="1">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:9" ht="46.9" customHeight="1" thickBot="1">
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <f>AVERAGE(D3:I3)</f>
         <v>4.7666666666666666</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <v>5</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>4.2</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>4.5</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="29">
+      <c r="B4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="28">
         <f>AVERAGE(D4:I4)</f>
         <v>4.6333333333333337</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>4.7</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>4.7</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <f>AVERAGE(D5:I5)</f>
         <v>4.75</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>4.7</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>4.7</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>4.8</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="C6" s="28">
+        <f t="shared" ref="C6:C10" si="0">AVERAGE(D6:I6)</f>
+        <v>4.5500000000000007</v>
+      </c>
+      <c r="D6" s="24">
         <v>4.7</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="E6" s="12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G6" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="H6" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>22</v>
+      <c r="I6" s="15">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="6"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="16"/>
+      <c r="B7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="28">
+        <f t="shared" si="0"/>
+        <v>4.6333333333333329</v>
+      </c>
+      <c r="D7" s="24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E7" s="12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="G7" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="H7" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I7" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="6"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="16"/>
+      <c r="B8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="28">
+        <f t="shared" si="0"/>
+        <v>4.6833333333333327</v>
+      </c>
+      <c r="D8" s="24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F8" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G8" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="H8" s="12">
+        <v>5</v>
+      </c>
+      <c r="I8" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="6"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="16"/>
+      <c r="B9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="28">
+        <f t="shared" si="0"/>
+        <v>4.6333333333333337</v>
+      </c>
+      <c r="D9" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="F9" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="G9" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="H9" s="12">
+        <v>4.8</v>
+      </c>
+      <c r="I9" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="6"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="16"/>
+      <c r="B10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="28">
+        <f t="shared" si="0"/>
+        <v>4.45</v>
+      </c>
+      <c r="D10" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G10" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="H10" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="I10" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="6"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" thickBot="1">
-      <c r="B12" s="7" t="s">
+      <c r="B11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="17"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:I6">
+  <conditionalFormatting sqref="D3:I10">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1078,7 +1155,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C6">
+  <conditionalFormatting sqref="C3:C10">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1107,7 +1184,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D3:I6</xm:sqref>
+          <xm:sqref>D3:I10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E44F88D7-09AA-4833-80BB-DBC566BD9AD5}">
@@ -1120,7 +1197,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C3:C6</xm:sqref>
+          <xm:sqref>C3:C10</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1135,33 +1212,33 @@
   </sheetPr>
   <dimension ref="A2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
-    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="86.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="86.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="29.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1"/>
-    <col min="14" max="14" width="19.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="12.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" style="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="19.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="1"/>
     <col min="18" max="18" width="16" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="1"/>
+    <col min="19" max="19" width="11.42578125" style="1"/>
     <col min="20" max="20" width="17" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="30" customHeight="1">
@@ -1169,75 +1246,75 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:9" ht="44.4" customHeight="1">
-      <c r="B3" s="22"/>
+    <row r="3" spans="1:9" ht="44.45" customHeight="1">
+      <c r="B3" s="21"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="44.4" customHeight="1">
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="1:9" ht="44.45" customHeight="1">
+      <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="44.4" customHeight="1">
-      <c r="B5" s="22" t="s">
+    <row r="5" spans="1:9" ht="44.45" customHeight="1">
+      <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="44.4" customHeight="1">
-      <c r="B6" s="21" t="s">
+    <row r="6" spans="1:9" ht="44.45" customHeight="1">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="44.4" customHeight="1">
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="1:9" ht="44.45" customHeight="1">
+      <c r="B7" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="77.400000000000006" customHeight="1">
-      <c r="B8" s="21" t="s">
+    <row r="8" spans="1:9" ht="77.45" customHeight="1">
+      <c r="B8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="31"/>
-    </row>
-    <row r="9" spans="1:9" ht="44.4" customHeight="1">
-      <c r="B9" s="22" t="s">
+      <c r="C8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:9" ht="44.45" customHeight="1">
+      <c r="B9" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-    </row>
-    <row r="10" spans="1:9" ht="44.4" customHeight="1">
-      <c r="B10" s="21" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:9" ht="44.45" customHeight="1">
+      <c r="B10" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="44.4" customHeight="1">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="1:9" ht="44.45" customHeight="1">
+      <c r="B11" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2"/>

--- a/APM/Autoevaluación con Sustentación Guía APM aholguinr.xlsx
+++ b/APM/Autoevaluación con Sustentación Guía APM aholguinr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Semestre-10\APM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECD0E9B-3FCD-40F9-BFB4-C86E37FB34CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139EB0CD-5259-4329-B01B-2CA58E2E3A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Desglose" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Calificación</t>
   </si>
@@ -124,16 +124,28 @@
   </si>
   <si>
     <t>Control de movimiento</t>
+  </si>
+  <si>
+    <t>Se realiza la definición formal del proyecto de curso experimental. Se abordan los diseños dominantes actuales y cómo se puede generar una mejora al sistema actual de manejo de los SDV-UN mediante la implementación de contenedores</t>
+  </si>
+  <si>
+    <t>Se realiza la definición de trayectoria tridimensional diseñada para la grua Maya UN, tal que logre generar un spline de 30 puntos con nueve puntos de base. Se realiza la práctica experimental de esta trayectoria, comparando los errores obtenidos tanto por la spline teórica como por los resultados experimentales obtenidos mediante una proyección de la posición en el plano X-Y</t>
+  </si>
+  <si>
+    <t>Respecto a cada seminario requerido, se analizaban uno o dos artículos extraidos de la librería virtual de IEEE XPLORE relacionados con el tema de interes. Esto tenía en cuenta el planteamiento principal del problema, su solución y análisis de resultados, y un análisis externo del trabajo realizado por los autores de cada uno de los artículos, así como la posible implementación y aportes que estos generaban hacia mi enfoque de curso.</t>
+  </si>
+  <si>
+    <t>Se realiza el avance del PCEV, exponiendo el cronograma del proyecto mediante diagrama de Gantt. Se defina una imagen básica de obtención de librerias para el contenedor basado en UBUNTU 18,04 y ROS melodic.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +191,12 @@
       <name val="Ancizar Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Ancizar Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -448,7 +466,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -537,6 +555,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,7 +567,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{1A6C94AC-C0A6-4109-923C-C0D9655190E0}"/>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFF3300"/>
@@ -862,19 +885,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01AFDE0-DCC4-4701-A24E-0E099AFFE93D}">
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="141" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="9" width="13.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="9" width="13.5546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:9" ht="46.9" customHeight="1" thickBot="1">
+    <row r="1" spans="2:9" ht="15" thickBot="1"/>
+    <row r="2" spans="2:9" ht="46.95" customHeight="1" thickBot="1">
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1068,22 +1091,22 @@
       </c>
       <c r="C9" s="28">
         <f t="shared" si="0"/>
-        <v>4.6333333333333337</v>
+        <v>4.1499999999999995</v>
       </c>
       <c r="D9" s="24">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="E9" s="12">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="F9" s="12">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="G9" s="12">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H9" s="12">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I9" s="15">
         <v>5</v>
@@ -1095,25 +1118,25 @@
       </c>
       <c r="C10" s="28">
         <f t="shared" si="0"/>
-        <v>4.45</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="D10" s="24">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E10" s="12">
-        <v>4.4000000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="F10" s="12">
-        <v>4.4000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="G10" s="12">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="12">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -1128,7 +1151,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1">
+    <row r="12" spans="2:9" ht="15" thickBot="1">
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1213,32 +1236,32 @@
   <dimension ref="A2:I11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="86.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="86.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="19.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="15.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="1"/>
+    <col min="14" max="14" width="19.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="12.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="1"/>
     <col min="18" max="18" width="16" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="1"/>
+    <col min="19" max="19" width="11.44140625" style="1"/>
     <col min="20" max="20" width="17" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="30" customHeight="1">
@@ -1256,12 +1279,12 @@
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:9" ht="44.45" customHeight="1">
+    <row r="3" spans="1:9" ht="44.4" customHeight="1">
       <c r="B3" s="21"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="44.45" customHeight="1">
+    <row r="4" spans="1:9" ht="44.4" customHeight="1">
       <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1269,28 +1292,34 @@
       <c r="D4" s="2"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="44.45" customHeight="1">
+    <row r="5" spans="1:9" ht="44.4" customHeight="1">
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="44.45" customHeight="1">
+    <row r="6" spans="1:9" ht="44.4" customHeight="1">
       <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="44.45" customHeight="1">
+    <row r="7" spans="1:9" ht="44.4" customHeight="1">
       <c r="B7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="77.45" customHeight="1">
+    <row r="8" spans="1:9" ht="77.400000000000006" customHeight="1">
       <c r="B8" s="20" t="s">
         <v>12</v>
       </c>
@@ -1299,21 +1328,23 @@
       </c>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:9" ht="44.45" customHeight="1">
+    <row r="9" spans="1:9" ht="44.4" customHeight="1">
       <c r="B9" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:9" ht="44.45" customHeight="1">
+    <row r="10" spans="1:9" ht="44.4" customHeight="1">
       <c r="B10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="44.45" customHeight="1">
+    <row r="11" spans="1:9" ht="44.4" customHeight="1">
       <c r="B11" s="21" t="s">
         <v>5</v>
       </c>

--- a/APM/Autoevaluación con Sustentación Guía APM aholguinr.xlsx
+++ b/APM/Autoevaluación con Sustentación Guía APM aholguinr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Semestre-10\APM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139EB0CD-5259-4329-B01B-2CA58E2E3A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B14C336-9098-4748-AEEA-2C88C8B9DEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Desglose" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Calificación</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>Se realiza el avance del PCEV, exponiendo el cronograma del proyecto mediante diagrama de Gantt. Se defina una imagen básica de obtención de librerias para el contenedor basado en UBUNTU 18,04 y ROS melodic.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Robótica colaborativa</t>
+  </si>
+  <si>
+    <t>Se realiza, en grupos, el desarrollo teórico de piezas individuales tales que se analizan todas sus propiedades integrales con el fin de lograr realizar un estudio integral de cada una de las piezas desarrolladas.</t>
+  </si>
+  <si>
+    <t>Dynamic Milling</t>
   </si>
 </sst>
 </file>
@@ -288,7 +300,33 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -303,7 +341,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -312,16 +350,105 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -331,133 +458,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -466,7 +470,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -479,76 +483,61 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -559,6 +548,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -883,17 +893,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01AFDE0-DCC4-4701-A24E-0E099AFFE93D}">
-  <dimension ref="B1:I12"/>
+  <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B1" zoomScale="141" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="37.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="9" width="13.5546875" style="7" customWidth="1"/>
+    <col min="4" max="9" width="13.5546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1"/>
@@ -904,268 +914,345 @@
       <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="23">
         <f>AVERAGE(D3:I3)</f>
         <v>4.7666666666666666</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="20">
         <v>5</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>4.2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>5</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>4.5</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="24">
         <f>AVERAGE(D4:I4)</f>
         <v>4.6333333333333337</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="21">
         <v>4.7</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>4.7</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="24">
         <f>AVERAGE(D5:I5)</f>
         <v>4.75</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>4.7</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>4.7</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>4.8</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="24">
         <f t="shared" ref="C6:C10" si="0">AVERAGE(D6:I6)</f>
         <v>4.5500000000000007</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>4.7</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>4.2</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="24">
         <f t="shared" si="0"/>
         <v>4.6333333333333329</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>4.7</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>4.5</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="24">
         <f t="shared" si="0"/>
         <v>4.6833333333333327</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>4.3</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>5</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="24">
         <f t="shared" si="0"/>
         <v>4.1499999999999995</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="21">
         <v>3.7</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>3.9</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>3.8</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>3.8</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>4.7</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="24">
         <f t="shared" si="0"/>
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="D10" s="24">
-        <v>3.5</v>
-      </c>
-      <c r="E10" s="12">
+        <v>4.05</v>
+      </c>
+      <c r="D10" s="21">
+        <v>3.7</v>
+      </c>
+      <c r="E10" s="11">
+        <v>3.9</v>
+      </c>
+      <c r="F10" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3</v>
+      </c>
+      <c r="H10" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="I10" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="24">
+        <f t="shared" ref="C11" si="1">AVERAGE(D11:I11)</f>
         <v>3.8</v>
       </c>
-      <c r="F10" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="D11" s="21">
+        <v>3.4</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="F11" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="13">
         <v>4</v>
       </c>
-      <c r="I10" s="15">
+    </row>
+    <row r="12" spans="2:9" ht="15" thickBot="1">
+      <c r="B12" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="29">
+        <f t="shared" ref="C12" si="2">AVERAGE(D12:I12)</f>
+        <v>3.875</v>
+      </c>
+      <c r="D12" s="30">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" thickBot="1">
-      <c r="B12" s="6" t="s">
+      <c r="E12" s="31">
+        <v>4.5</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="31">
+        <v>4</v>
+      </c>
+      <c r="I12" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15" thickBot="1">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="16"/>
+      <c r="C13" s="33">
+        <f>AVERAGE(C3:C12)</f>
+        <v>4.3891666666666662</v>
+      </c>
+      <c r="D13" s="33">
+        <f t="shared" ref="D13:I13" si="3">AVERAGE(D3:D12)</f>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="E13" s="33">
+        <f t="shared" si="3"/>
+        <v>4.3</v>
+      </c>
+      <c r="F13" s="33">
+        <f t="shared" si="3"/>
+        <v>4.488888888888888</v>
+      </c>
+      <c r="G13" s="33">
+        <f t="shared" si="3"/>
+        <v>4.0555555555555554</v>
+      </c>
+      <c r="H13" s="33">
+        <f t="shared" si="3"/>
+        <v>4.6444444444444448</v>
+      </c>
+      <c r="I13" s="33">
+        <f t="shared" si="3"/>
+        <v>4.7</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C3:C12">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E44F88D7-09AA-4833-80BB-DBC566BD9AD5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D3:I10">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1178,7 +1265,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C10">
+  <conditionalFormatting sqref="D11:I12">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1187,7 +1274,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E44F88D7-09AA-4833-80BB-DBC566BD9AD5}</x14:id>
+          <x14:id>{06787D8A-6C24-43EC-9F15-58F3C94D5E2B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1196,6 +1283,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E44F88D7-09AA-4833-80BB-DBC566BD9AD5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C3:C12</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6A354CDB-CF0F-4639-8820-C6A9C64D8D6C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -1210,7 +1310,7 @@
           <xm:sqref>D3:I10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E44F88D7-09AA-4833-80BB-DBC566BD9AD5}">
+          <x14:cfRule type="dataBar" id="{06787D8A-6C24-43EC-9F15-58F3C94D5E2B}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1220,7 +1320,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C3:C10</xm:sqref>
+          <xm:sqref>D11:I12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1235,8 +1335,8 @@
   </sheetPr>
   <dimension ref="A2:I11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
@@ -1269,10 +1369,10 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E2"/>
@@ -1280,12 +1380,12 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="1:9" ht="44.4" customHeight="1">
-      <c r="B3" s="21"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="44.4" customHeight="1">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
@@ -1293,16 +1393,16 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="44.4" customHeight="1">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="44.4" customHeight="1">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1311,32 +1411,34 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="44.4" customHeight="1">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="26" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="77.400000000000006" customHeight="1">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="44.4" customHeight="1">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="C9" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="44.4" customHeight="1">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1345,7 +1447,7 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="44.4" customHeight="1">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2"/>
